--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_CaoAnhVuong.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_CaoAnhVuong.xlsx
@@ -25,12 +25,11 @@
     <definedName name="_xlnm.Criteria" localSheetId="2">TongHopThang!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="86">
   <si>
     <t>STT</t>
   </si>
@@ -251,6 +250,48 @@
   </si>
   <si>
     <t>Cao Anh Vương</t>
+  </si>
+  <si>
+    <t>Lock 125.212.203.114,16767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.170909 </t>
+  </si>
+  <si>
+    <t>Châp DIODE quá áp lỗi ic giao tiếp</t>
+  </si>
+  <si>
+    <t>Thay DIODE quá áp và IC giao tiếp</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Tuấn</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>W.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>Châp DIODE quá áp, nổ cầu chì</t>
+  </si>
+  <si>
+    <t>Thay DIODE quá áp và cầu chì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>SE.3.00.---02.180711</t>
+  </si>
+  <si>
+    <t>Châp DIODE quá áp, IC nguồn, nổ cầu chì</t>
+  </si>
+  <si>
+    <t>Thay DIODE quá áp,IC nguồn và cầu chì</t>
   </si>
 </sst>
 </file>
@@ -762,30 +803,6 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -807,10 +824,34 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1120,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="H1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1152,43 +1193,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93" t="s">
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="93"/>
+      <c r="F2" s="103"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1233,58 +1274,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95" t="s">
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="95" t="s">
+      <c r="K4" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="95"/>
-      <c r="M4" s="96" t="s">
+      <c r="L4" s="97"/>
+      <c r="M4" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="96" t="s">
+      <c r="N4" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="95" t="s">
+      <c r="O4" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="104" t="s">
+      <c r="P4" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="95" t="s">
+      <c r="Q4" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="95" t="s">
+      <c r="R4" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="105" t="s">
+      <c r="S4" s="98" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="95" t="s">
+      <c r="V4" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="95" t="s">
+      <c r="W4" s="97" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1309,24 +1350,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="95"/>
+      <c r="J5" s="97"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="99"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="95"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="97"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1347,20 +1388,38 @@
         <v>67</v>
       </c>
       <c r="H6" s="69"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
+      <c r="I6" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" s="53" t="s">
+        <v>83</v>
+      </c>
       <c r="L6" s="56"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
+      <c r="M6" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="N6" s="55">
+        <v>70000</v>
+      </c>
+      <c r="O6" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>31</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="68"/>
-      <c r="V6" s="98" t="s">
+      <c r="V6" s="90" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1391,7 +1450,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="68"/>
-      <c r="V7" s="99"/>
+      <c r="V7" s="91"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1420,7 +1479,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="68"/>
-      <c r="V8" s="99"/>
+      <c r="V8" s="91"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1449,7 +1508,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="68"/>
       <c r="U9" s="68"/>
-      <c r="V9" s="99"/>
+      <c r="V9" s="91"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1478,7 +1537,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="68"/>
       <c r="U10" s="68"/>
-      <c r="V10" s="99"/>
+      <c r="V10" s="91"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1507,7 +1566,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="68"/>
       <c r="U11" s="68"/>
-      <c r="V11" s="99"/>
+      <c r="V11" s="91"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1536,7 +1595,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="68"/>
       <c r="U12" s="68"/>
-      <c r="V12" s="98" t="s">
+      <c r="V12" s="90" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1567,7 +1626,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="68"/>
       <c r="U13" s="68"/>
-      <c r="V13" s="99"/>
+      <c r="V13" s="91"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1596,7 +1655,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="68"/>
       <c r="U14" s="68"/>
-      <c r="V14" s="99"/>
+      <c r="V14" s="91"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1625,7 +1684,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="68"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="99"/>
+      <c r="V15" s="91"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1654,7 +1713,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="68"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="100"/>
+      <c r="V16" s="92"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1805,7 +1864,7 @@
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2082,7 +2141,7 @@
       </c>
       <c r="W30" s="11">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2306,7 +2365,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2888,10 +2947,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="101" t="s">
+      <c r="V56" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="101">
+      <c r="W56" s="93">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -2920,8 +2979,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="102"/>
-      <c r="W57" s="102"/>
+      <c r="V57" s="94"/>
+      <c r="W57" s="94"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -2947,8 +3006,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="103"/>
-      <c r="W58" s="103"/>
+      <c r="V58" s="95"/>
+      <c r="W58" s="95"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4235,6 +4294,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -4245,16 +4314,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4265,8 +4324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4297,43 +4356,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93" t="s">
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="93"/>
+      <c r="F2" s="103"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="71"/>
@@ -4378,58 +4437,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95" t="s">
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="95" t="s">
+      <c r="K4" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="95"/>
-      <c r="M4" s="96" t="s">
+      <c r="L4" s="97"/>
+      <c r="M4" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="96" t="s">
+      <c r="N4" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="95" t="s">
+      <c r="O4" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="104" t="s">
+      <c r="P4" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="95" t="s">
+      <c r="Q4" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="95" t="s">
+      <c r="R4" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="105" t="s">
+      <c r="S4" s="98" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="95" t="s">
+      <c r="V4" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="95" t="s">
+      <c r="W4" s="97" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -4454,24 +4513,24 @@
       <c r="I5" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="95"/>
+      <c r="J5" s="97"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="99"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="95"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="97"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4492,20 +4551,40 @@
         <v>67</v>
       </c>
       <c r="H6" s="69"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
+      <c r="I6" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="53" t="s">
+        <v>73</v>
+      </c>
       <c r="L6" s="56"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="4"/>
+      <c r="M6" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" s="55">
+        <v>40000</v>
+      </c>
+      <c r="O6" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="T6" s="28"/>
       <c r="U6" s="64"/>
-      <c r="V6" s="98" t="s">
+      <c r="V6" s="90" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4531,20 +4610,38 @@
         <v>67</v>
       </c>
       <c r="H7" s="51"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="1"/>
+      <c r="I7" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="L7" s="56"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="51"/>
+      <c r="M7" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="N7" s="55">
+        <v>20000</v>
+      </c>
+      <c r="O7" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="P7" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="51" t="s">
+        <v>31</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="64"/>
-      <c r="V7" s="99"/>
+      <c r="V7" s="91"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4564,7 +4661,9 @@
       <c r="J8" s="53"/>
       <c r="K8" s="56"/>
       <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
+      <c r="M8" s="53" t="s">
+        <v>82</v>
+      </c>
       <c r="N8" s="55"/>
       <c r="O8" s="53"/>
       <c r="P8" s="53"/>
@@ -4573,7 +4672,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="64"/>
-      <c r="V8" s="99"/>
+      <c r="V8" s="91"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4602,7 +4701,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
-      <c r="V9" s="99"/>
+      <c r="V9" s="91"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4631,7 +4730,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
-      <c r="V10" s="99"/>
+      <c r="V10" s="91"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4660,7 +4759,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
-      <c r="V11" s="99"/>
+      <c r="V11" s="91"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4689,7 +4788,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
-      <c r="V12" s="98" t="s">
+      <c r="V12" s="90" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4720,7 +4819,7 @@
       <c r="S13" s="60"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
-      <c r="V13" s="99"/>
+      <c r="V13" s="91"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4749,7 +4848,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
-      <c r="V14" s="99"/>
+      <c r="V14" s="91"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4778,7 +4877,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="64"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="99"/>
+      <c r="V15" s="91"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4807,7 +4906,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="64"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="100"/>
+      <c r="V16" s="92"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4958,7 +5057,7 @@
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5235,7 +5334,7 @@
       </c>
       <c r="W30" s="11">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5459,7 +5558,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6041,10 +6140,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="101" t="s">
+      <c r="V56" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="101">
+      <c r="W56" s="93">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6073,8 +6172,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="102"/>
-      <c r="W57" s="102"/>
+      <c r="V57" s="94"/>
+      <c r="W57" s="94"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6100,8 +6199,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="103"/>
-      <c r="W58" s="103"/>
+      <c r="V58" s="95"/>
+      <c r="W58" s="95"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7388,6 +7487,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -7398,16 +7507,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7450,43 +7549,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93" t="s">
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="93"/>
+      <c r="F2" s="103"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -7531,58 +7630,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95" t="s">
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="95" t="s">
+      <c r="K4" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="95"/>
-      <c r="M4" s="96" t="s">
+      <c r="L4" s="97"/>
+      <c r="M4" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="96" t="s">
+      <c r="N4" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="95" t="s">
+      <c r="O4" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="104" t="s">
+      <c r="P4" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="95" t="s">
+      <c r="Q4" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="95" t="s">
+      <c r="R4" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="105" t="s">
+      <c r="S4" s="98" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="95" t="s">
+      <c r="V4" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="95" t="s">
+      <c r="W4" s="97" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -7607,24 +7706,24 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="95"/>
+      <c r="J5" s="97"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="99"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="95"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="97"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -7650,7 +7749,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="98" t="s">
+      <c r="V6" s="90" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -7681,7 +7780,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="99"/>
+      <c r="V7" s="91"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7710,7 +7809,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="99"/>
+      <c r="V8" s="91"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7739,7 +7838,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="99"/>
+      <c r="V9" s="91"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -7768,7 +7867,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="99"/>
+      <c r="V10" s="91"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7797,7 +7896,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="99"/>
+      <c r="V11" s="91"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7826,7 +7925,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="98" t="s">
+      <c r="V12" s="90" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -7857,7 +7956,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="99"/>
+      <c r="V13" s="91"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7886,7 +7985,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="99"/>
+      <c r="V14" s="91"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7915,7 +8014,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="99"/>
+      <c r="V15" s="91"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7944,7 +8043,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="100"/>
+      <c r="V16" s="92"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9178,10 +9277,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="101" t="s">
+      <c r="V56" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="101">
+      <c r="W56" s="93">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9210,8 +9309,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="102"/>
-      <c r="W57" s="102"/>
+      <c r="V57" s="94"/>
+      <c r="W57" s="94"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -9237,8 +9336,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="103"/>
-      <c r="W58" s="103"/>
+      <c r="V58" s="95"/>
+      <c r="W58" s="95"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -10525,6 +10624,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -10535,16 +10644,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_CaoAnhVuong.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_CaoAnhVuong.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BHSX09\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang12\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang12\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="30" r:id="rId1"/>
@@ -24,12 +24,12 @@
     <definedName name="_xlnm.Criteria" localSheetId="1">TG102V!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="2">TongHopThang!$S$4:$S$51</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="87">
   <si>
     <t>STT</t>
   </si>
@@ -293,11 +293,14 @@
   <si>
     <t>Thay DIODE quá áp,IC nguồn và cầu chì</t>
   </si>
+  <si>
+    <t>25/12/2020</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -803,6 +806,30 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -824,34 +851,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1161,8 +1164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1193,43 +1196,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="103" t="s">
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="103"/>
+      <c r="F2" s="93"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1274,58 +1277,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97" t="s">
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="97" t="s">
+      <c r="K4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="97"/>
-      <c r="M4" s="105" t="s">
+      <c r="L4" s="95"/>
+      <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="105" t="s">
+      <c r="N4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="97" t="s">
+      <c r="O4" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="96" t="s">
+      <c r="P4" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="97" t="s">
+      <c r="Q4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="97" t="s">
+      <c r="R4" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="98" t="s">
+      <c r="S4" s="105" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="97" t="s">
+      <c r="V4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="97" t="s">
+      <c r="W4" s="95" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="104"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1350,24 +1353,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="97"/>
+      <c r="J5" s="95"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="99"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="106"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="97"/>
-      <c r="W5" s="97"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="95"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1376,7 +1379,9 @@
       <c r="B6" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="83"/>
+      <c r="C6" s="83" t="s">
+        <v>86</v>
+      </c>
       <c r="D6" s="51" t="s">
         <v>47</v>
       </c>
@@ -1419,7 +1424,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="68"/>
-      <c r="V6" s="90" t="s">
+      <c r="V6" s="98" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1450,7 +1455,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="68"/>
-      <c r="V7" s="91"/>
+      <c r="V7" s="99"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1479,7 +1484,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="68"/>
-      <c r="V8" s="91"/>
+      <c r="V8" s="99"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1508,7 +1513,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="68"/>
       <c r="U9" s="68"/>
-      <c r="V9" s="91"/>
+      <c r="V9" s="99"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1537,7 +1542,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="68"/>
       <c r="U10" s="68"/>
-      <c r="V10" s="91"/>
+      <c r="V10" s="99"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1566,7 +1571,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="68"/>
       <c r="U11" s="68"/>
-      <c r="V11" s="91"/>
+      <c r="V11" s="99"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1595,7 +1600,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="68"/>
       <c r="U12" s="68"/>
-      <c r="V12" s="90" t="s">
+      <c r="V12" s="98" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1626,7 +1631,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="68"/>
       <c r="U13" s="68"/>
-      <c r="V13" s="91"/>
+      <c r="V13" s="99"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1655,7 +1660,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="68"/>
       <c r="U14" s="68"/>
-      <c r="V14" s="91"/>
+      <c r="V14" s="99"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1684,7 +1689,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="68"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="91"/>
+      <c r="V15" s="99"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1713,7 +1718,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="68"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="92"/>
+      <c r="V16" s="100"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2947,10 +2952,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="93" t="s">
+      <c r="V56" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="93">
+      <c r="W56" s="101">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -2979,8 +2984,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="94"/>
-      <c r="W57" s="94"/>
+      <c r="V57" s="102"/>
+      <c r="W57" s="102"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -3006,8 +3011,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="95"/>
-      <c r="W58" s="95"/>
+      <c r="V58" s="103"/>
+      <c r="W58" s="103"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4294,6 +4299,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -4304,16 +4319,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4324,8 +4329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4356,43 +4361,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="103" t="s">
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="103"/>
+      <c r="F2" s="93"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="71"/>
@@ -4437,58 +4442,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97" t="s">
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="97" t="s">
+      <c r="K4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="97"/>
-      <c r="M4" s="105" t="s">
+      <c r="L4" s="95"/>
+      <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="105" t="s">
+      <c r="N4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="97" t="s">
+      <c r="O4" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="96" t="s">
+      <c r="P4" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="97" t="s">
+      <c r="Q4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="97" t="s">
+      <c r="R4" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="98" t="s">
+      <c r="S4" s="105" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="97" t="s">
+      <c r="V4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="97" t="s">
+      <c r="W4" s="95" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="104"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -4513,24 +4518,24 @@
       <c r="I5" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="97"/>
+      <c r="J5" s="95"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="99"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="106"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="97"/>
-      <c r="W5" s="97"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="95"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4539,7 +4544,9 @@
       <c r="B6" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="83"/>
+      <c r="C6" s="83" t="s">
+        <v>86</v>
+      </c>
       <c r="D6" s="51" t="s">
         <v>46</v>
       </c>
@@ -4584,7 +4591,7 @@
       </c>
       <c r="T6" s="28"/>
       <c r="U6" s="64"/>
-      <c r="V6" s="90" t="s">
+      <c r="V6" s="98" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4598,7 +4605,9 @@
       <c r="B7" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="83"/>
+      <c r="C7" s="83" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" s="51" t="s">
         <v>46</v>
       </c>
@@ -4641,7 +4650,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="64"/>
-      <c r="V7" s="91"/>
+      <c r="V7" s="99"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4672,7 +4681,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="64"/>
-      <c r="V8" s="91"/>
+      <c r="V8" s="99"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4701,7 +4710,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
-      <c r="V9" s="91"/>
+      <c r="V9" s="99"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4730,7 +4739,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
-      <c r="V10" s="91"/>
+      <c r="V10" s="99"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4759,7 +4768,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
-      <c r="V11" s="91"/>
+      <c r="V11" s="99"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4788,7 +4797,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
-      <c r="V12" s="90" t="s">
+      <c r="V12" s="98" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4819,7 +4828,7 @@
       <c r="S13" s="60"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
-      <c r="V13" s="91"/>
+      <c r="V13" s="99"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4848,7 +4857,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
-      <c r="V14" s="91"/>
+      <c r="V14" s="99"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4877,7 +4886,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="64"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="91"/>
+      <c r="V15" s="99"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4906,7 +4915,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="64"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="92"/>
+      <c r="V16" s="100"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6140,10 +6149,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="93" t="s">
+      <c r="V56" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="93">
+      <c r="W56" s="101">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6172,8 +6181,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="94"/>
-      <c r="W57" s="94"/>
+      <c r="V57" s="102"/>
+      <c r="W57" s="102"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6199,8 +6208,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="95"/>
-      <c r="W58" s="95"/>
+      <c r="V58" s="103"/>
+      <c r="W58" s="103"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7487,6 +7496,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -7497,16 +7516,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7517,8 +7526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7549,43 +7558,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="103" t="s">
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="103"/>
+      <c r="F2" s="93"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -7630,58 +7639,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97" t="s">
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="97" t="s">
+      <c r="K4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="97"/>
-      <c r="M4" s="105" t="s">
+      <c r="L4" s="95"/>
+      <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="105" t="s">
+      <c r="N4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="97" t="s">
+      <c r="O4" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="96" t="s">
+      <c r="P4" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="97" t="s">
+      <c r="Q4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="97" t="s">
+      <c r="R4" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="98" t="s">
+      <c r="S4" s="105" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="97" t="s">
+      <c r="V4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="97" t="s">
+      <c r="W4" s="95" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="104"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -7706,50 +7715,78 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="97"/>
+      <c r="J5" s="95"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="99"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="106"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="97"/>
-      <c r="W5" s="97"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="95"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
+      <c r="B6" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="52">
+        <v>862631039276836</v>
+      </c>
       <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
+      <c r="G6" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="69"/>
+      <c r="I6" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" s="56"/>
+      <c r="M6" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="N6" s="55">
+        <v>70000</v>
+      </c>
+      <c r="O6" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>31</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="90" t="s">
+      <c r="V6" s="98" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -7760,27 +7797,57 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
+      <c r="B7" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="52">
+        <v>864811036959786</v>
+      </c>
       <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="4"/>
+      <c r="G7" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="69"/>
+      <c r="I7" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="56"/>
+      <c r="M7" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" s="55">
+        <v>40000</v>
+      </c>
+      <c r="O7" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="P7" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="91"/>
+      <c r="V7" s="99"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7789,27 +7856,55 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
+      <c r="B8" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="52">
+        <v>866192037774328</v>
+      </c>
       <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
+      <c r="G8" s="51" t="s">
+        <v>67</v>
+      </c>
       <c r="H8" s="51"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="56"/>
+      <c r="I8" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="56"/>
+      <c r="M8" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="N8" s="55">
+        <v>20000</v>
+      </c>
+      <c r="O8" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="51" t="s">
+        <v>31</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="91"/>
+      <c r="V8" s="99"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7838,7 +7933,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="91"/>
+      <c r="V9" s="99"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -7867,7 +7962,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="91"/>
+      <c r="V10" s="99"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7896,7 +7991,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="91"/>
+      <c r="V11" s="99"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7925,7 +8020,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="90" t="s">
+      <c r="V12" s="98" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -7956,7 +8051,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="91"/>
+      <c r="V13" s="99"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7985,7 +8080,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="91"/>
+      <c r="V14" s="99"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8014,7 +8109,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="91"/>
+      <c r="V15" s="99"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8043,7 +8138,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="92"/>
+      <c r="V16" s="100"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8194,7 +8289,7 @@
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8471,7 +8566,7 @@
       </c>
       <c r="W30" s="11">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8695,7 +8790,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9026,7 +9121,7 @@
       </c>
       <c r="W48" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102V")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9058,7 +9153,7 @@
       </c>
       <c r="W49" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102SE")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9277,10 +9372,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="93" t="s">
+      <c r="V56" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="93">
+      <c r="W56" s="101">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9309,8 +9404,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="94"/>
-      <c r="W57" s="94"/>
+      <c r="V57" s="102"/>
+      <c r="W57" s="102"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -9336,8 +9431,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="95"/>
-      <c r="W58" s="95"/>
+      <c r="V58" s="103"/>
+      <c r="W58" s="103"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -10624,6 +10719,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -10634,16 +10739,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_CaoAnhVuong.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_CaoAnhVuong.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang12\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BHSX09\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang12\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm.Criteria" localSheetId="1">TG102V!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="2">TongHopThang!$S$4:$S$51</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -300,7 +300,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -806,30 +806,6 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -851,10 +827,34 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1196,43 +1196,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93" t="s">
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="93"/>
+      <c r="F2" s="103"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1277,58 +1277,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95" t="s">
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="95" t="s">
+      <c r="K4" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="95"/>
-      <c r="M4" s="96" t="s">
+      <c r="L4" s="97"/>
+      <c r="M4" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="96" t="s">
+      <c r="N4" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="95" t="s">
+      <c r="O4" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="104" t="s">
+      <c r="P4" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="95" t="s">
+      <c r="Q4" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="95" t="s">
+      <c r="R4" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="105" t="s">
+      <c r="S4" s="98" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="95" t="s">
+      <c r="V4" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="95" t="s">
+      <c r="W4" s="97" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1353,24 +1353,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="95"/>
+      <c r="J5" s="97"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="99"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="95"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="97"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1424,7 +1424,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="68"/>
-      <c r="V6" s="98" t="s">
+      <c r="V6" s="90" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1455,7 +1455,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="68"/>
-      <c r="V7" s="99"/>
+      <c r="V7" s="91"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1484,7 +1484,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="68"/>
-      <c r="V8" s="99"/>
+      <c r="V8" s="91"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1513,7 +1513,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="68"/>
       <c r="U9" s="68"/>
-      <c r="V9" s="99"/>
+      <c r="V9" s="91"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1542,7 +1542,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="68"/>
       <c r="U10" s="68"/>
-      <c r="V10" s="99"/>
+      <c r="V10" s="91"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1571,7 +1571,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="68"/>
       <c r="U11" s="68"/>
-      <c r="V11" s="99"/>
+      <c r="V11" s="91"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1600,7 +1600,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="68"/>
       <c r="U12" s="68"/>
-      <c r="V12" s="98" t="s">
+      <c r="V12" s="90" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1631,7 +1631,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="68"/>
       <c r="U13" s="68"/>
-      <c r="V13" s="99"/>
+      <c r="V13" s="91"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1660,7 +1660,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="68"/>
       <c r="U14" s="68"/>
-      <c r="V14" s="99"/>
+      <c r="V14" s="91"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1689,7 +1689,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="68"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="99"/>
+      <c r="V15" s="91"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1718,7 +1718,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="68"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="100"/>
+      <c r="V16" s="92"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2952,10 +2952,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="101" t="s">
+      <c r="V56" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="101">
+      <c r="W56" s="93">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -2984,8 +2984,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="102"/>
-      <c r="W57" s="102"/>
+      <c r="V57" s="94"/>
+      <c r="W57" s="94"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -3011,8 +3011,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="103"/>
-      <c r="W58" s="103"/>
+      <c r="V58" s="95"/>
+      <c r="W58" s="95"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4299,6 +4299,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -4309,16 +4319,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4361,43 +4361,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93" t="s">
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="93"/>
+      <c r="F2" s="103"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="71"/>
@@ -4442,58 +4442,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95" t="s">
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="95" t="s">
+      <c r="K4" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="95"/>
-      <c r="M4" s="96" t="s">
+      <c r="L4" s="97"/>
+      <c r="M4" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="96" t="s">
+      <c r="N4" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="95" t="s">
+      <c r="O4" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="104" t="s">
+      <c r="P4" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="95" t="s">
+      <c r="Q4" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="95" t="s">
+      <c r="R4" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="105" t="s">
+      <c r="S4" s="98" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="95" t="s">
+      <c r="V4" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="95" t="s">
+      <c r="W4" s="97" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -4518,24 +4518,24 @@
       <c r="I5" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="95"/>
+      <c r="J5" s="97"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="99"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="95"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="97"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="T6" s="28"/>
       <c r="U6" s="64"/>
-      <c r="V6" s="98" t="s">
+      <c r="V6" s="90" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4650,7 +4650,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="64"/>
-      <c r="V7" s="99"/>
+      <c r="V7" s="91"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4681,7 +4681,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="64"/>
-      <c r="V8" s="99"/>
+      <c r="V8" s="91"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4710,7 +4710,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
-      <c r="V9" s="99"/>
+      <c r="V9" s="91"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4739,7 +4739,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
-      <c r="V10" s="99"/>
+      <c r="V10" s="91"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4768,7 +4768,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
-      <c r="V11" s="99"/>
+      <c r="V11" s="91"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4797,7 +4797,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
-      <c r="V12" s="98" t="s">
+      <c r="V12" s="90" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4828,7 +4828,7 @@
       <c r="S13" s="60"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
-      <c r="V13" s="99"/>
+      <c r="V13" s="91"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4857,7 +4857,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
-      <c r="V14" s="99"/>
+      <c r="V14" s="91"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4886,7 +4886,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="64"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="99"/>
+      <c r="V15" s="91"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4915,7 +4915,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="64"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="100"/>
+      <c r="V16" s="92"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6149,10 +6149,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="101" t="s">
+      <c r="V56" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="101">
+      <c r="W56" s="93">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6181,8 +6181,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="102"/>
-      <c r="W57" s="102"/>
+      <c r="V57" s="94"/>
+      <c r="W57" s="94"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6208,8 +6208,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="103"/>
-      <c r="W58" s="103"/>
+      <c r="V58" s="95"/>
+      <c r="W58" s="95"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7496,6 +7496,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -7506,16 +7516,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7527,7 +7527,7 @@
   <dimension ref="A1:W105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:S8"/>
+      <selection activeCell="N6" sqref="N6:N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7558,43 +7558,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93" t="s">
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="93"/>
+      <c r="F2" s="103"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -7639,58 +7639,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95" t="s">
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="95" t="s">
+      <c r="K4" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="95"/>
-      <c r="M4" s="96" t="s">
+      <c r="L4" s="97"/>
+      <c r="M4" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="96" t="s">
+      <c r="N4" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="95" t="s">
+      <c r="O4" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="104" t="s">
+      <c r="P4" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="95" t="s">
+      <c r="Q4" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="95" t="s">
+      <c r="R4" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="105" t="s">
+      <c r="S4" s="98" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="95" t="s">
+      <c r="V4" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="95" t="s">
+      <c r="W4" s="97" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -7715,24 +7715,24 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="95"/>
+      <c r="J5" s="97"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="99"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="95"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="97"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -7786,7 +7786,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="98" t="s">
+      <c r="V6" s="90" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -7847,7 +7847,7 @@
       </c>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="99"/>
+      <c r="V7" s="91"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7904,7 +7904,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="99"/>
+      <c r="V8" s="91"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7933,7 +7933,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="99"/>
+      <c r="V9" s="91"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -7962,7 +7962,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="99"/>
+      <c r="V10" s="91"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7991,7 +7991,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="99"/>
+      <c r="V11" s="91"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8020,7 +8020,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="98" t="s">
+      <c r="V12" s="90" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -8051,7 +8051,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="99"/>
+      <c r="V13" s="91"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8080,7 +8080,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="99"/>
+      <c r="V14" s="91"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8109,7 +8109,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="99"/>
+      <c r="V15" s="91"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8138,7 +8138,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="100"/>
+      <c r="V16" s="92"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9372,10 +9372,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="101" t="s">
+      <c r="V56" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="101">
+      <c r="W56" s="93">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9404,8 +9404,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="102"/>
-      <c r="W57" s="102"/>
+      <c r="V57" s="94"/>
+      <c r="W57" s="94"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -9431,8 +9431,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="103"/>
-      <c r="W58" s="103"/>
+      <c r="V58" s="95"/>
+      <c r="W58" s="95"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -10719,6 +10719,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -10729,16 +10739,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
